--- a/XMLSoccerTest/TestData/XMLSoccerTest_TestData.xlsx
+++ b/XMLSoccerTest/TestData/XMLSoccerTest_TestData.xlsx
@@ -7,18 +7,80 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RunResult" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="16">
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>TestStep</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Failure Message</t>
+  </si>
+  <si>
+    <t>TC05_Test_PropertyScope_OthrTC</t>
+  </si>
+  <si>
+    <t>Step03_AccessCommonLib</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Step02_AccessProp_CallClassMethod</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.lang.NullPointerException: Cannot invoke method getSheetAt() on null object
+error at line: 13
+</t>
+  </si>
+  <si>
+    <t>team3</t>
+  </si>
+  <si>
+    <t>l1_1</t>
+  </si>
+  <si>
+    <t>l1_2</t>
+  </si>
+  <si>
+    <t>team1</t>
+  </si>
+  <si>
+    <t>team2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -34,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +104,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,36 +426,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>